--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H2">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I2">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J2">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N2">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O2">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P2">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q2">
-        <v>138.6115831572155</v>
+        <v>0.9189954436150001</v>
       </c>
       <c r="R2">
-        <v>138.6115831572155</v>
+        <v>8.270958992535</v>
       </c>
       <c r="S2">
-        <v>0.04489621331864512</v>
+        <v>0.0002490001385682216</v>
       </c>
       <c r="T2">
-        <v>0.04489621331864512</v>
+        <v>0.0002849911851329892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H3">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I3">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J3">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N3">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P3">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q3">
-        <v>1196.640914463605</v>
+        <v>7.491435250130001</v>
       </c>
       <c r="R3">
-        <v>1196.640914463605</v>
+        <v>67.42291725117001</v>
       </c>
       <c r="S3">
-        <v>0.3875913147939534</v>
+        <v>0.002029790711496388</v>
       </c>
       <c r="T3">
-        <v>0.3875913147939534</v>
+        <v>0.002323181279205586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H4">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I4">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J4">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N4">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O4">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P4">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q4">
-        <v>264.6334761297412</v>
+        <v>2.022101249675</v>
       </c>
       <c r="R4">
-        <v>264.6334761297412</v>
+        <v>18.198911247075</v>
       </c>
       <c r="S4">
-        <v>0.08571463311330749</v>
+        <v>0.0005478846438970862</v>
       </c>
       <c r="T4">
-        <v>0.08571463311330749</v>
+        <v>0.0006270771368973202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H5">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I5">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J5">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N5">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O5">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P5">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q5">
-        <v>319.352497637296</v>
+        <v>1.92687594425</v>
       </c>
       <c r="R5">
-        <v>319.352497637296</v>
+        <v>17.34188349825</v>
       </c>
       <c r="S5">
-        <v>0.1034380932039718</v>
+        <v>0.0005220835211485825</v>
       </c>
       <c r="T5">
-        <v>0.1034380932039718</v>
+        <v>0.0005975466611628933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H6">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I6">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J6">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N6">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O6">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P6">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q6">
-        <v>724.313286375026</v>
+        <v>4.3615629500475</v>
       </c>
       <c r="R6">
-        <v>724.313286375026</v>
+        <v>26.169377700285</v>
       </c>
       <c r="S6">
-        <v>0.2346046634337807</v>
+        <v>0.001181757522827094</v>
       </c>
       <c r="T6">
-        <v>0.2346046634337807</v>
+        <v>0.0009017142959756348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H7">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J7">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N7">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O7">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P7">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q7">
-        <v>23.27151858784719</v>
+        <v>175.7068343059141</v>
       </c>
       <c r="R7">
-        <v>23.27151858784719</v>
+        <v>1581.361508753227</v>
       </c>
       <c r="S7">
-        <v>0.007537631696939569</v>
+        <v>0.0476074461451683</v>
       </c>
       <c r="T7">
-        <v>0.007537631696939569</v>
+        <v>0.05448873472955585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H8">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J8">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N8">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P8">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q8">
-        <v>200.9042148543458</v>
+        <v>1432.320890547875</v>
       </c>
       <c r="R8">
-        <v>200.9042148543458</v>
+        <v>12890.88801493087</v>
       </c>
       <c r="S8">
-        <v>0.06507276146240369</v>
+        <v>0.3880847317562893</v>
       </c>
       <c r="T8">
-        <v>0.06507276146240369</v>
+        <v>0.4441793818718719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H9">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J9">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N9">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O9">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P9">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q9">
-        <v>44.42935228389177</v>
+        <v>386.6145492830905</v>
       </c>
       <c r="R9">
-        <v>44.42935228389177</v>
+        <v>3479.530943547815</v>
       </c>
       <c r="S9">
-        <v>0.01439064205395018</v>
+        <v>0.1047525066776172</v>
       </c>
       <c r="T9">
-        <v>0.01439064205395018</v>
+        <v>0.1198936723303315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H10">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J10">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N10">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O10">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P10">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q10">
-        <v>53.61613665729848</v>
+        <v>368.4079987737388</v>
       </c>
       <c r="R10">
-        <v>53.61613665729848</v>
+        <v>3315.67198896365</v>
       </c>
       <c r="S10">
-        <v>0.0173662363119932</v>
+        <v>0.09981947503836883</v>
       </c>
       <c r="T10">
-        <v>0.0173662363119932</v>
+        <v>0.1142476090740946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H11">
+        <v>131.577157</v>
+      </c>
+      <c r="I11">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J11">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.0133305</v>
+      </c>
+      <c r="N11">
+        <v>38.026661</v>
+      </c>
+      <c r="O11">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P11">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q11">
+        <v>833.9066574304629</v>
+      </c>
+      <c r="R11">
+        <v>5003.439944582778</v>
+      </c>
+      <c r="S11">
+        <v>0.2259454872119439</v>
+      </c>
+      <c r="T11">
+        <v>0.1724027746764759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.089704</v>
+      </c>
+      <c r="I12">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J12">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.006170333333333</v>
+      </c>
+      <c r="N12">
+        <v>12.018511</v>
+      </c>
+      <c r="O12">
+        <v>0.05496065106112269</v>
+      </c>
+      <c r="P12">
+        <v>0.06019443438116229</v>
+      </c>
+      <c r="Q12">
+        <v>26.21979191845734</v>
+      </c>
+      <c r="R12">
+        <v>157.318751510744</v>
+      </c>
+      <c r="S12">
+        <v>0.007104204777386178</v>
+      </c>
+      <c r="T12">
+        <v>0.005420708466473449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="H11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="I11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="J11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="N11">
-        <v>18.8429892200866</v>
-      </c>
-      <c r="O11">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="P11">
-        <v>0.2739924740448354</v>
-      </c>
-      <c r="Q11">
-        <v>121.6050615927451</v>
-      </c>
-      <c r="R11">
-        <v>121.6050615927451</v>
-      </c>
-      <c r="S11">
-        <v>0.03938781061105468</v>
-      </c>
-      <c r="T11">
-        <v>0.03938781061105468</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.089704</v>
+      </c>
+      <c r="I13">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J13">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N13">
+        <v>97.972082</v>
+      </c>
+      <c r="O13">
+        <v>0.4480263330901556</v>
+      </c>
+      <c r="P13">
+        <v>0.490690906813236</v>
+      </c>
+      <c r="Q13">
+        <v>213.7375922739547</v>
+      </c>
+      <c r="R13">
+        <v>1282.425553643728</v>
+      </c>
+      <c r="S13">
+        <v>0.05791181062236998</v>
+      </c>
+      <c r="T13">
+        <v>0.0441883436621584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H14">
+        <v>13.089704</v>
+      </c>
+      <c r="I14">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J14">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.814931666666666</v>
+      </c>
+      <c r="N14">
+        <v>26.444795</v>
+      </c>
+      <c r="O14">
+        <v>0.1209320481029573</v>
+      </c>
+      <c r="P14">
+        <v>0.1324481441462082</v>
+      </c>
+      <c r="Q14">
+        <v>57.69242314844667</v>
+      </c>
+      <c r="R14">
+        <v>346.15453889068</v>
+      </c>
+      <c r="S14">
+        <v>0.01563165678144307</v>
+      </c>
+      <c r="T14">
+        <v>0.01192739467897934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H15">
+        <v>13.089704</v>
+      </c>
+      <c r="I15">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J15">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.399816666666666</v>
+      </c>
+      <c r="N15">
+        <v>25.19945</v>
+      </c>
+      <c r="O15">
+        <v>0.1152370853912109</v>
+      </c>
+      <c r="P15">
+        <v>0.1262108625158624</v>
+      </c>
+      <c r="Q15">
+        <v>54.97555691046667</v>
+      </c>
+      <c r="R15">
+        <v>329.8533414628</v>
+      </c>
+      <c r="S15">
+        <v>0.01489552683169355</v>
+      </c>
+      <c r="T15">
+        <v>0.01136570678060488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.089704</v>
+      </c>
+      <c r="I16">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J16">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.0133305</v>
+      </c>
+      <c r="N16">
+        <v>38.026661</v>
+      </c>
+      <c r="O16">
+        <v>0.2608438823545532</v>
+      </c>
+      <c r="P16">
+        <v>0.1904556521435312</v>
+      </c>
+      <c r="Q16">
+        <v>124.439434149586</v>
+      </c>
+      <c r="R16">
+        <v>497.7577365983441</v>
+      </c>
+      <c r="S16">
+        <v>0.03371663761978227</v>
+      </c>
+      <c r="T16">
+        <v>0.01715116317107965</v>
       </c>
     </row>
   </sheetData>
